--- a/data/extracted_data/raw_round2/data/Gueguen_etal_2011_Fig6+7.xlsx
+++ b/data/extracted_data/raw_round2/data/Gueguen_etal_2011_Fig6+7.xlsx
@@ -139,6 +139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/extracted_data/raw_round2/data/Gueguen_etal_2011_Fig6+7.xlsx
+++ b/data/extracted_data/raw_round2/data/Gueguen_etal_2011_Fig6+7.xlsx
@@ -1,42 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{2A749B0D-F5F0-EA42-BCCF-F911E52793B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7FB76D0-FA98-E243-9E47-DAAE2E124503}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAC3D64-0075-8E4A-BB36-570D1413D5BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{49706A3D-0188-BA48-B06D-021C6690B002}"/>
+    <workbookView xWindow="18660" yWindow="1160" windowWidth="28800" windowHeight="16180" xr2:uid="{49706A3D-0188-BA48-B06D-021C6690B002}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="20">
   <si>
     <t>treatment</t>
   </si>
@@ -82,6 +75,21 @@
   <si>
     <t>Depuration</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of toxicity</t>
+  </si>
+  <si>
+    <t>toxcity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -122,8 +130,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,10 +164,723 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chris Free" refreshedDate="45972.467572685186" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{FD755A27-EADD-4447-B408-B9DFCB90A325}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F51" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="figure" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Figure 6"/>
+        <s v="Figure 7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="species" numFmtId="0">
+      <sharedItems count="3">
+        <s v="GTX2"/>
+        <s v="GTX3"/>
+        <s v="C2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="treatment" numFmtId="0">
+      <sharedItems count="3">
+        <s v="high exposure (2000 cells ml-1); 5 exposure days"/>
+        <s v="low exposure (200 cells ml-1); 10 exposure days"/>
+        <s v="low exposure (200 cells ml-1); 13 exposure days"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="phase" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Depuration"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8" count="8">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="5"/>
+        <n v="7"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="toxicity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="32.206759443339998" maxValue="2153.0418250950502" count="50">
+        <n v="990.52973009310597"/>
+        <n v="957.22832845954701"/>
+        <n v="810.182850996605"/>
+        <n v="615.49191623810896"/>
+        <n v="297.71268192665798"/>
+        <n v="382.02077241101102"/>
+        <n v="348.71937077745298"/>
+        <n v="329.64438170145502"/>
+        <n v="206.04349433632501"/>
+        <n v="163.12897045477399"/>
+        <n v="745.07579577157003"/>
+        <n v="725.99240361668501"/>
+        <n v="640.55830056132595"/>
+        <n v="635.69291788511305"/>
+        <n v="507.61318947262299"/>
+        <n v="384.25599139524701"/>
+        <n v="151.65876777251199"/>
+        <n v="2153.0418250950502"/>
+        <n v="1573.32032198042"/>
+        <n v="1107.66725993042"/>
+        <n v="433.13310681444301"/>
+        <n v="181.47635034921601"/>
+        <n v="1365.9392443976999"/>
+        <n v="995.35164361027898"/>
+        <n v="762.57146131650597"/>
+        <n v="211.61145268721501"/>
+        <n v="97.812676967882894"/>
+        <n v="1667.4584323040301"/>
+        <n v="1358.66983372921"/>
+        <n v="954.86935866983299"/>
+        <n v="750.59382422802798"/>
+        <n v="275.53444180522501"/>
+        <n v="318.28978622327799"/>
+        <n v="95.011876484561"/>
+        <n v="510.53677932405498"/>
+        <n v="345.924453280318"/>
+        <n v="289.860834990059"/>
+        <n v="140.75546719681901"/>
+        <n v="63.220675944333998"/>
+        <n v="308.946322067594"/>
+        <n v="200.397614314115"/>
+        <n v="163.41948310139099"/>
+        <n v="59.642147117296297"/>
+        <n v="32.206759443339998"/>
+        <n v="390.39039039039"/>
+        <n v="325.52552552552498"/>
+        <n v="246.24624624624599"/>
+        <n v="209.00900900900899"/>
+        <n v="109.309309309309"/>
+        <n v="42.042042042042098"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="49"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94BA933F-F886-B149-B074-9FFB52D777D3}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="51">
+        <item x="43"/>
+        <item x="49"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="33"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="37"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="41"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="47"/>
+        <item x="25"/>
+        <item x="46"/>
+        <item x="31"/>
+        <item x="36"/>
+        <item x="4"/>
+        <item x="39"/>
+        <item x="32"/>
+        <item x="45"/>
+        <item x="7"/>
+        <item x="35"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="44"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="34"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of toxicity" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +918,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +1024,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +1166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7CE5D-4BFF-264C-927E-681B93034C58}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,8 +2205,738 @@
         <v>42.042042042042098</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>3143.5715551881563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2530.5486504399669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1917.8501109270251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1048.625023052552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56" s="5">
+        <v>479.18903227587396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1747.9600168087109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1344.071014387732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1092.2158430179611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" s="5">
+        <v>417.65494702353999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61" s="5">
+        <v>260.9416474226569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2412.5342280756004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2084.6622373458949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1595.4276592311589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1386.2867421131409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66" s="5">
+        <v>783.14763127784795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" s="5">
+        <v>702.54577761852499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="F68" s="5">
+        <v>246.67064425707298</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF7CD88-2E93-3D42-9458-F8A6EEA2A47E}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9119.7843718835757</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9119.7843718835757</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3143.5715551881563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3143.5715551881563</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2530.5486504399669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2530.5486504399669</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1917.8501109270251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1917.8501109270251</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1048.625023052552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1048.625023052552</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5">
+        <v>479.18903227587396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>479.18903227587396</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1747.9600168087109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4862.8434686606024</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1344.071014387732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4862.8434686606024</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1092.2158430179611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1747.9600168087109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>417.65494702353999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1344.071014387732</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5">
+        <v>260.9416474226569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1092.2158430179611</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2412.5342280756004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>417.65494702353999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2084.6622373458949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>260.9416474226569</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1595.4276592311589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>9211.2749199192403</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1386.2867421131409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5">
+        <v>9211.2749199192403</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5">
+        <v>783.14763127784795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2412.5342280756004</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="5">
+        <v>702.54577761852499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2084.6622373458949</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8</v>
+      </c>
+      <c r="J21" s="5">
+        <v>246.67064425707298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1595.4276592311589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1386.2867421131409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>783.14763127784795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>702.54577761852499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>246.67064425707298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
+        <v>23193.902760463414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>